--- a/DataFrame_reconstruido/Lula_industrial_reconstruido.xlsx
+++ b/DataFrame_reconstruido/Lula_industrial_reconstruido.xlsx
@@ -555,7 +555,7 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>9.690597534179688</v>
+        <v>39.33856201171875</v>
       </c>
     </row>
     <row r="14">
@@ -564,7 +564,7 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>17.45217895507812</v>
+        <v>57.73202514648438</v>
       </c>
     </row>
     <row r="15">
@@ -573,7 +573,7 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>39.03824615478516</v>
+        <v>83.97170257568359</v>
       </c>
     </row>
     <row r="16">
@@ -582,7 +582,7 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>69.92230987548828</v>
+        <v>113.8868865966797</v>
       </c>
     </row>
     <row r="17">
@@ -591,7 +591,7 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>111.995231628418</v>
+        <v>144.2779235839844</v>
       </c>
     </row>
     <row r="18">
@@ -680,7 +680,7 @@
         <v>2005</v>
       </c>
       <c r="B27" t="n">
-        <v>421.5</v>
+        <v>451.5</v>
       </c>
       <c r="C27" t="inlineStr"/>
     </row>
@@ -689,7 +689,7 @@
         <v>2006</v>
       </c>
       <c r="B28" t="n">
-        <v>507</v>
+        <v>507.5</v>
       </c>
       <c r="C28" t="inlineStr"/>
     </row>
@@ -781,9 +781,7 @@
       <c r="B38" t="n">
         <v>0.02300000004470348</v>
       </c>
-      <c r="C38" t="n">
-        <v>60.77664947509766</v>
-      </c>
+      <c r="C38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">

--- a/DataFrame_reconstruido/Lula_industrial_reconstruido.xlsx
+++ b/DataFrame_reconstruido/Lula_industrial_reconstruido.xlsx
@@ -555,7 +555,7 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>39.33856201171875</v>
+        <v>85.21643829345703</v>
       </c>
     </row>
     <row r="14">
@@ -564,7 +564,7 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>57.73202514648438</v>
+        <v>106.7392883300781</v>
       </c>
     </row>
     <row r="15">
@@ -573,7 +573,7 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>83.97170257568359</v>
+        <v>132.0409698486328</v>
       </c>
     </row>
     <row r="16">
@@ -582,7 +582,7 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>113.8868865966797</v>
+        <v>160.9737091064453</v>
       </c>
     </row>
     <row r="17">
@@ -591,7 +591,7 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>144.2779235839844</v>
+        <v>262.1226501464844</v>
       </c>
     </row>
     <row r="18">
